--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna1-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna1-Epha4.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>18.57067033333334</v>
+        <v>31.824752</v>
       </c>
       <c r="H2">
-        <v>55.712011</v>
+        <v>95.47425600000001</v>
       </c>
       <c r="I2">
-        <v>0.834164862818447</v>
+        <v>0.886907633630525</v>
       </c>
       <c r="J2">
-        <v>0.8341648628184472</v>
+        <v>0.886907633630525</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>5.685057</v>
+        <v>10.23061133333333</v>
       </c>
       <c r="N2">
-        <v>17.055171</v>
+        <v>30.691834</v>
       </c>
       <c r="O2">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="P2">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="Q2">
-        <v>105.575319373209</v>
+        <v>325.5866684917227</v>
       </c>
       <c r="R2">
-        <v>950.1778743588811</v>
+        <v>2930.280016425505</v>
       </c>
       <c r="S2">
-        <v>0.3006836315498601</v>
+        <v>0.4306500127857567</v>
       </c>
       <c r="T2">
-        <v>0.3006836315498601</v>
+        <v>0.4306500127857567</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>18.57067033333334</v>
+        <v>31.824752</v>
       </c>
       <c r="H3">
-        <v>55.712011</v>
+        <v>95.47425600000001</v>
       </c>
       <c r="I3">
-        <v>0.834164862818447</v>
+        <v>0.886907633630525</v>
       </c>
       <c r="J3">
-        <v>0.8341648628184472</v>
+        <v>0.886907633630525</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>26.325559</v>
       </c>
       <c r="O3">
-        <v>0.556390131249909</v>
+        <v>0.4164864079521221</v>
       </c>
       <c r="P3">
-        <v>0.5563901312499091</v>
+        <v>0.4164864079521222</v>
       </c>
       <c r="Q3">
-        <v>162.9610925099055</v>
+        <v>279.2681288121227</v>
       </c>
       <c r="R3">
-        <v>1466.649832589149</v>
+        <v>2513.413159309104</v>
       </c>
       <c r="S3">
-        <v>0.4641210975076181</v>
+        <v>0.3693849745160941</v>
       </c>
       <c r="T3">
-        <v>0.4641210975076182</v>
+        <v>0.3693849745160941</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>18.57067033333334</v>
+        <v>31.824752</v>
       </c>
       <c r="H4">
-        <v>55.712011</v>
+        <v>95.47425600000001</v>
       </c>
       <c r="I4">
-        <v>0.834164862818447</v>
+        <v>0.886907633630525</v>
       </c>
       <c r="J4">
-        <v>0.8341648628184472</v>
+        <v>0.886907633630525</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.269702666666667</v>
+        <v>2.034752</v>
       </c>
       <c r="N4">
-        <v>3.809108</v>
+        <v>6.104255999999999</v>
       </c>
       <c r="O4">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303886</v>
       </c>
       <c r="P4">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303887</v>
       </c>
       <c r="Q4">
-        <v>23.57922964402089</v>
+        <v>64.755477781504</v>
       </c>
       <c r="R4">
-        <v>212.213066796188</v>
+        <v>582.799300033536</v>
       </c>
       <c r="S4">
-        <v>0.06715478996989384</v>
+        <v>0.08565137959652497</v>
       </c>
       <c r="T4">
-        <v>0.06715478996989385</v>
+        <v>0.08565137959652498</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>31.824752</v>
+      </c>
+      <c r="H5">
+        <v>95.47425600000001</v>
+      </c>
+      <c r="I5">
+        <v>0.886907633630525</v>
+      </c>
+      <c r="J5">
+        <v>0.886907633630525</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G5">
-        <v>18.57067033333334</v>
-      </c>
-      <c r="H5">
-        <v>55.712011</v>
-      </c>
-      <c r="I5">
-        <v>0.834164862818447</v>
-      </c>
-      <c r="J5">
-        <v>0.8341648628184472</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.04169666666666667</v>
+        <v>0.02901266666666667</v>
       </c>
       <c r="N5">
-        <v>0.12509</v>
+        <v>0.087038</v>
       </c>
       <c r="O5">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="P5">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="Q5">
-        <v>0.7743350506655556</v>
+        <v>0.9233209215253335</v>
       </c>
       <c r="R5">
-        <v>6.969015455990001</v>
+        <v>8.309888293728001</v>
       </c>
       <c r="S5">
-        <v>0.002205343791074976</v>
+        <v>0.001221266732149232</v>
       </c>
       <c r="T5">
-        <v>0.002205343791074977</v>
+        <v>0.001221266732149232</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>6.999351000000001</v>
       </c>
       <c r="I6">
-        <v>0.1047998907584427</v>
+        <v>0.06502043684278042</v>
       </c>
       <c r="J6">
-        <v>0.1047998907584427</v>
+        <v>0.06502043684278042</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>5.685057</v>
+        <v>10.23061133333333</v>
       </c>
       <c r="N6">
-        <v>17.055171</v>
+        <v>30.691834</v>
       </c>
       <c r="O6">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="P6">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="Q6">
-        <v>13.263903132669</v>
+        <v>23.86921322219267</v>
       </c>
       <c r="R6">
-        <v>119.375128194021</v>
+        <v>214.822918999734</v>
       </c>
       <c r="S6">
-        <v>0.03777623961863707</v>
+        <v>0.03157155367245804</v>
       </c>
       <c r="T6">
-        <v>0.03777623961863708</v>
+        <v>0.03157155367245804</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>6.999351000000001</v>
       </c>
       <c r="I7">
-        <v>0.1047998907584427</v>
+        <v>0.06502043684278042</v>
       </c>
       <c r="J7">
-        <v>0.1047998907584427</v>
+        <v>0.06502043684278042</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>26.325559</v>
       </c>
       <c r="O7">
-        <v>0.556390131249909</v>
+        <v>0.4164864079521221</v>
       </c>
       <c r="P7">
-        <v>0.5563901312499091</v>
+        <v>0.4164864079521222</v>
       </c>
       <c r="Q7">
         <v>20.47353641246767</v>
@@ -883,10 +883,10 @@
         <v>184.261827712209</v>
       </c>
       <c r="S7">
-        <v>0.05830962497406607</v>
+        <v>0.02708012818412743</v>
       </c>
       <c r="T7">
-        <v>0.0583096249740661</v>
+        <v>0.02708012818412744</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>6.999351000000001</v>
       </c>
       <c r="I8">
-        <v>0.1047998907584427</v>
+        <v>0.06502043684278042</v>
       </c>
       <c r="J8">
-        <v>0.1047998907584427</v>
+        <v>0.06502043684278042</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.269702666666667</v>
+        <v>2.034752</v>
       </c>
       <c r="N8">
-        <v>3.809108</v>
+        <v>6.104255999999999</v>
       </c>
       <c r="O8">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303886</v>
       </c>
       <c r="P8">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303887</v>
       </c>
       <c r="Q8">
-        <v>2.962364876545333</v>
+        <v>4.747314481984</v>
       </c>
       <c r="R8">
-        <v>26.661283888908</v>
+        <v>42.725830337856</v>
       </c>
       <c r="S8">
-        <v>0.008436958887205963</v>
+        <v>0.006279222217037404</v>
       </c>
       <c r="T8">
-        <v>0.008436958887205965</v>
+        <v>0.006279222217037405</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>6.999351000000001</v>
       </c>
       <c r="I9">
-        <v>0.1047998907584427</v>
+        <v>0.06502043684278042</v>
       </c>
       <c r="J9">
-        <v>0.1047998907584427</v>
+        <v>0.06502043684278042</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.04169666666666667</v>
+        <v>0.02901266666666667</v>
       </c>
       <c r="N9">
-        <v>0.12509</v>
+        <v>0.087038</v>
       </c>
       <c r="O9">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="P9">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="Q9">
-        <v>0.09728320184333333</v>
+        <v>0.06768994581533334</v>
       </c>
       <c r="R9">
-        <v>0.8755488165900002</v>
+        <v>0.6092095123380001</v>
       </c>
       <c r="S9">
-        <v>0.0002770672785336078</v>
+        <v>8.953276915753562E-05</v>
       </c>
       <c r="T9">
-        <v>0.0002770672785336079</v>
+        <v>8.953276915753562E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.240364666666667</v>
+        <v>1.696588</v>
       </c>
       <c r="H10">
-        <v>3.721094</v>
+        <v>5.089764000000001</v>
       </c>
       <c r="I10">
-        <v>0.05571520055243645</v>
+        <v>0.04728133775640876</v>
       </c>
       <c r="J10">
-        <v>0.05571520055243646</v>
+        <v>0.04728133775640876</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>5.685057</v>
+        <v>10.23061133333333</v>
       </c>
       <c r="N10">
-        <v>17.055171</v>
+        <v>30.691834</v>
       </c>
       <c r="O10">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="P10">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="Q10">
-        <v>7.051543830786</v>
+        <v>17.35713242079733</v>
       </c>
       <c r="R10">
-        <v>63.46389447707401</v>
+        <v>156.214191787176</v>
       </c>
       <c r="S10">
-        <v>0.02008313893494878</v>
+        <v>0.02295809387272402</v>
       </c>
       <c r="T10">
-        <v>0.02008313893494879</v>
+        <v>0.02295809387272402</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.240364666666667</v>
+        <v>1.696588</v>
       </c>
       <c r="H11">
-        <v>3.721094</v>
+        <v>5.089764000000001</v>
       </c>
       <c r="I11">
-        <v>0.05571520055243645</v>
+        <v>0.04728133775640876</v>
       </c>
       <c r="J11">
-        <v>0.05571520055243646</v>
+        <v>0.04728133775640876</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>26.325559</v>
       </c>
       <c r="O11">
-        <v>0.556390131249909</v>
+        <v>0.4164864079521221</v>
       </c>
       <c r="P11">
-        <v>0.5563901312499091</v>
+        <v>0.4164864079521222</v>
       </c>
       <c r="Q11">
-        <v>10.88443107128289</v>
+        <v>14.88787583089733</v>
       </c>
       <c r="R11">
-        <v>97.959879641546</v>
+        <v>133.990882478076</v>
       </c>
       <c r="S11">
-        <v>0.03099938774798512</v>
+        <v>0.01969203452533773</v>
       </c>
       <c r="T11">
-        <v>0.03099938774798513</v>
+        <v>0.01969203452533774</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.240364666666667</v>
+        <v>1.696588</v>
       </c>
       <c r="H12">
-        <v>3.721094</v>
+        <v>5.089764000000001</v>
       </c>
       <c r="I12">
-        <v>0.05571520055243645</v>
+        <v>0.04728133775640876</v>
       </c>
       <c r="J12">
-        <v>0.05571520055243646</v>
+        <v>0.04728133775640876</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.269702666666667</v>
+        <v>2.034752</v>
       </c>
       <c r="N12">
-        <v>3.809108</v>
+        <v>6.104255999999999</v>
       </c>
       <c r="O12">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303886</v>
       </c>
       <c r="P12">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303887</v>
       </c>
       <c r="Q12">
-        <v>1.574894324905778</v>
+        <v>3.452135826176</v>
       </c>
       <c r="R12">
-        <v>14.174048924152</v>
+        <v>31.069222435584</v>
       </c>
       <c r="S12">
-        <v>0.004485375443155913</v>
+        <v>0.004566103227038787</v>
       </c>
       <c r="T12">
-        <v>0.004485375443155914</v>
+        <v>0.004566103227038788</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.240364666666667</v>
+        <v>1.696588</v>
       </c>
       <c r="H13">
-        <v>3.721094</v>
+        <v>5.089764000000001</v>
       </c>
       <c r="I13">
-        <v>0.05571520055243645</v>
+        <v>0.04728133775640876</v>
       </c>
       <c r="J13">
-        <v>0.05571520055243646</v>
+        <v>0.04728133775640876</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.04169666666666667</v>
+        <v>0.02901266666666667</v>
       </c>
       <c r="N13">
-        <v>0.12509</v>
+        <v>0.087038</v>
       </c>
       <c r="O13">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="P13">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="Q13">
-        <v>0.05171907205111111</v>
+        <v>0.04922254211466668</v>
       </c>
       <c r="R13">
-        <v>0.46547164846</v>
+        <v>0.4430028790320001</v>
       </c>
       <c r="S13">
-        <v>0.0001472984263466337</v>
+        <v>6.510613130822202E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001472984263466337</v>
+        <v>6.510613130822202E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.118438</v>
+        <v>0.02836866666666667</v>
       </c>
       <c r="H14">
-        <v>0.355314</v>
+        <v>0.085106</v>
       </c>
       <c r="I14">
-        <v>0.005320045870673626</v>
+        <v>0.0007905917702857979</v>
       </c>
       <c r="J14">
-        <v>0.005320045870673627</v>
+        <v>0.0007905917702857978</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>5.685057</v>
+        <v>10.23061133333333</v>
       </c>
       <c r="N14">
-        <v>17.055171</v>
+        <v>30.691834</v>
       </c>
       <c r="O14">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="P14">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="Q14">
-        <v>0.673326780966</v>
+        <v>0.2902288027115556</v>
       </c>
       <c r="R14">
-        <v>6.059941028694</v>
+        <v>2.612059224404</v>
       </c>
       <c r="S14">
-        <v>0.001917667338565591</v>
+        <v>0.0003838825409453268</v>
       </c>
       <c r="T14">
-        <v>0.001917667338565592</v>
+        <v>0.0003838825409453267</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.118438</v>
+        <v>0.02836866666666667</v>
       </c>
       <c r="H15">
-        <v>0.355314</v>
+        <v>0.085106</v>
       </c>
       <c r="I15">
-        <v>0.005320045870673626</v>
+        <v>0.0007905917702857979</v>
       </c>
       <c r="J15">
-        <v>0.005320045870673627</v>
+        <v>0.0007905917702857978</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>26.325559</v>
       </c>
       <c r="O15">
-        <v>0.556390131249909</v>
+        <v>0.4164864079521221</v>
       </c>
       <c r="P15">
-        <v>0.5563901312499091</v>
+        <v>0.4164864079521222</v>
       </c>
       <c r="Q15">
-        <v>1.039315518947333</v>
+        <v>0.2489403360282222</v>
       </c>
       <c r="R15">
-        <v>9.353839670525998</v>
+        <v>2.240463024254</v>
       </c>
       <c r="S15">
-        <v>0.002960021020239635</v>
+        <v>0.0003292707265628412</v>
       </c>
       <c r="T15">
-        <v>0.002960021020239636</v>
+        <v>0.0003292707265628412</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.118438</v>
+        <v>0.02836866666666667</v>
       </c>
       <c r="H16">
-        <v>0.355314</v>
+        <v>0.085106</v>
       </c>
       <c r="I16">
-        <v>0.005320045870673626</v>
+        <v>0.0007905917702857979</v>
       </c>
       <c r="J16">
-        <v>0.005320045870673627</v>
+        <v>0.0007905917702857978</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.269702666666667</v>
+        <v>2.034752</v>
       </c>
       <c r="N16">
-        <v>3.809108</v>
+        <v>6.104255999999999</v>
       </c>
       <c r="O16">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303886</v>
       </c>
       <c r="P16">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303887</v>
       </c>
       <c r="Q16">
-        <v>0.1503810444346667</v>
+        <v>0.05772320123733332</v>
       </c>
       <c r="R16">
-        <v>1.353429399912</v>
+        <v>0.519508811136</v>
       </c>
       <c r="S16">
-        <v>0.0004282925102696949</v>
+        <v>7.634986243770104E-05</v>
       </c>
       <c r="T16">
-        <v>0.0004282925102696949</v>
+        <v>7.634986243770104E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.02836866666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.085106</v>
+      </c>
+      <c r="I17">
+        <v>0.0007905917702857979</v>
+      </c>
+      <c r="J17">
+        <v>0.0007905917702857978</v>
+      </c>
+      <c r="K17">
         <v>2</v>
       </c>
-      <c r="F17">
+      <c r="L17">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G17">
-        <v>0.118438</v>
-      </c>
-      <c r="H17">
-        <v>0.355314</v>
-      </c>
-      <c r="I17">
-        <v>0.005320045870673626</v>
-      </c>
-      <c r="J17">
-        <v>0.005320045870673627</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M17">
-        <v>0.04169666666666667</v>
+        <v>0.02901266666666667</v>
       </c>
       <c r="N17">
-        <v>0.12509</v>
+        <v>0.087038</v>
       </c>
       <c r="O17">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="P17">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="Q17">
-        <v>0.004938469806666666</v>
+        <v>0.0008230506697777778</v>
       </c>
       <c r="R17">
-        <v>0.04444622826</v>
+        <v>0.007407456028000001</v>
       </c>
       <c r="S17">
-        <v>1.406500159870398E-05</v>
+        <v>1.088640339928834E-06</v>
       </c>
       <c r="T17">
-        <v>1.406500159870399E-05</v>
+        <v>1.088640339928834E-06</v>
       </c>
     </row>
   </sheetData>
